--- a/autors.xlsx
+++ b/autors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>Jacek</t>
   </si>
@@ -213,6 +213,42 @@
   </si>
   <si>
     <t>Łeontowycz</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
+    <t>Kenoly</t>
+  </si>
+  <si>
+    <t>Folek</t>
+  </si>
+  <si>
+    <t>Franciszek</t>
+  </si>
+  <si>
+    <t>Twila</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Wanke</t>
+  </si>
+  <si>
+    <t>Jef</t>
+  </si>
+  <si>
+    <t>R.</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Fitz</t>
   </si>
 </sst>
 </file>
@@ -257,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -273,9 +309,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -313,7 +349,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -385,7 +421,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -535,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B30" sqref="A30:B30"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G31" si="0">$D$1&amp;A2&amp;$E$1&amp;B2&amp;$F$1</f>
+        <f t="shared" ref="G2:G37" si="0">$D$1&amp;A2&amp;$E$1&amp;B2&amp;$F$1</f>
         <v>INSERT INTO `e-spiewnik`.`Composers` (`Id`, `Name`, `SurName`)  VALUES (NULL, 'Jacek', 'Gałuszka');</v>
       </c>
     </row>
@@ -930,7 +966,80 @@
         <v>INSERT INTO `e-spiewnik`.`Composers` (`Id`, `Name`, `SurName`)  VALUES (NULL, 'Juliusz', 'Słowacki');</v>
       </c>
     </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `e-spiewnik`.`Composers` (`Id`, `Name`, `SurName`)  VALUES (NULL, 'Ron', 'Kenoly');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `e-spiewnik`.`Composers` (`Id`, `Name`, `SurName`)  VALUES (NULL, 'Franciszek', 'Folek');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `e-spiewnik`.`Composers` (`Id`, `Name`, `SurName`)  VALUES (NULL, 'Twila', 'Paris');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `e-spiewnik`.`Composers` (`Id`, `Name`, `SurName`)  VALUES (NULL, 'Gabriel', 'Wanke');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `e-spiewnik`.`Composers` (`Id`, `Name`, `SurName`)  VALUES (NULL, 'R.', 'Jef');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `e-spiewnik`.`Composers` (`Id`, `Name`, `SurName`)  VALUES (NULL, 'Bob', 'Fitz');</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/autors.xlsx
+++ b/autors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\xampp\htdocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
   <si>
     <t>Jacek</t>
   </si>
@@ -249,6 +249,18 @@
   </si>
   <si>
     <t>Fitz</t>
+  </si>
+  <si>
+    <t>Aleksandra</t>
+  </si>
+  <si>
+    <t>Szewczyk</t>
+  </si>
+  <si>
+    <t>Kostoń</t>
+  </si>
+  <si>
+    <t>T.</t>
   </si>
 </sst>
 </file>
@@ -571,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G37" si="0">$D$1&amp;A2&amp;$E$1&amp;B2&amp;$F$1</f>
+        <f t="shared" ref="G2:G39" si="0">$D$1&amp;A2&amp;$E$1&amp;B2&amp;$F$1</f>
         <v>INSERT INTO `e-spiewnik`.`Composers` (`Id`, `Name`, `SurName`)  VALUES (NULL, 'Jacek', 'Gałuszka');</v>
       </c>
     </row>
@@ -1036,6 +1048,30 @@
       <c r="G37" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `e-spiewnik`.`Composers` (`Id`, `Name`, `SurName`)  VALUES (NULL, 'Bob', 'Fitz');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `e-spiewnik`.`Composers` (`Id`, `Name`, `SurName`)  VALUES (NULL, 'Aleksandra', 'Szewczyk');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `e-spiewnik`.`Composers` (`Id`, `Name`, `SurName`)  VALUES (NULL, 'T.', 'Kostoń');</v>
       </c>
     </row>
   </sheetData>
